--- a/周数据/《个人上线率统计表》-经旺平.xlsx
+++ b/周数据/《个人上线率统计表》-经旺平.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="9334" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,6 +106,42 @@
     <t>新老品牌</t>
   </si>
   <si>
+    <t>供应链</t>
+  </si>
+  <si>
+    <t>南京御品殿餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>京茶山</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南京南店）</t>
+  </si>
+  <si>
+    <t>经旺平</t>
+  </si>
+  <si>
+    <t>杨燕</t>
+  </si>
+  <si>
+    <t>系统负责人</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（马群新街店）</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（常州湖塘吾悦店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -119,6 +155,39 @@
   </si>
   <si>
     <t>销售人员</t>
+  </si>
+  <si>
+    <t>鲜货俚火锅</t>
+  </si>
+  <si>
+    <t>未通知</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>SAAS+微信+供应链</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+  </si>
+  <si>
+    <t>蛙爵记</t>
+  </si>
+  <si>
+    <t>还在筹备</t>
+  </si>
+  <si>
+    <t>SAAS+供应链</t>
+  </si>
+  <si>
+    <t>徐州渔悦酒店管理有限公司</t>
+  </si>
+  <si>
+    <t>刚立项，还在筹备</t>
+  </si>
+  <si>
+    <t>李燕东</t>
   </si>
   <si>
     <t>姓名</t>
@@ -135,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +264,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,73 +278,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -278,32 +287,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,6 +311,96 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -331,17 +408,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,7 +479,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,13 +581,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,127 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +1011,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -951,31 +1074,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,21 +1095,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1024,15 +1108,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,10 +1116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,31 +1128,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,104 +1161,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1304,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1262,16 +1340,31 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,10 +1421,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,277 +1794,285 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J17:J18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.12612612612613" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.12612612612613" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.2522522522523" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.7477477477477" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.8738738738739" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5045045045045" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8738738738739" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8738738738739" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.8738738738739" style="27" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.8738738738739" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.6216216216216" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="15" spans="1:13">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" ht="14.85" spans="1:13">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39">
+      <c r="A3" s="42">
+        <v>5</v>
+      </c>
+      <c r="B3" s="43">
+        <v>18</v>
+      </c>
+      <c r="C3" s="44">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45">
+        <v>3</v>
+      </c>
+      <c r="E3" s="45">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="40">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56" t="e">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62">
         <f>I3/L3*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="57">
+        <v>0</v>
+      </c>
+      <c r="K3" s="63">
         <f>C3+G3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="58">
+        <v>3</v>
+      </c>
+      <c r="L3" s="64">
         <f>D3+G3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="59" t="e">
+        <v>3</v>
+      </c>
+      <c r="M3" s="65">
         <f>L3/K3*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40">
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56" t="e">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="63">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="64">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="59" t="e">
+      <c r="M4" s="65" t="e">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56" t="e">
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="59" t="e">
+      <c r="M5" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="e">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="59" t="e">
+      <c r="M6" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="e">
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="59" t="e">
+      <c r="M7" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.85" spans="1:13">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45">
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="46">
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="e">
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="64" t="e">
+      <c r="M8" s="70" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1992,122 +2093,204 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8378378378378" customWidth="1"/>
-    <col min="2" max="3" width="11.4864864864865" customWidth="1"/>
-    <col min="4" max="5" width="9.72972972972973"/>
+    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
+    <col min="2" max="3" width="11.4833333333333" customWidth="1"/>
+    <col min="4" max="5" width="9.73333333333333"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.2702702702703" customWidth="1"/>
-    <col min="8" max="8" width="17.1621621621622" customWidth="1"/>
-    <col min="9" max="9" width="9.86486486486486" customWidth="1"/>
-    <col min="10" max="10" width="13.9189189189189" customWidth="1"/>
-    <col min="11" max="11" width="17.972972972973" customWidth="1"/>
+    <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
+    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.975" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.72972972972973"/>
+    <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="28.3" spans="1:15">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="24" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="27">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28">
+        <v>43229</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76162958</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15195577630</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76162973</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15195577630</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76167603</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15195577630</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
@@ -7142,6 +7325,10 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -7149,11 +7336,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5:O1048576">
+      <formula1>"新品牌,老品牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7168,21 +7355,21 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.62162162162162" style="9"/>
-    <col min="2" max="2" width="15.6216216216216" customWidth="1"/>
-    <col min="3" max="3" width="12.7477477477477" customWidth="1"/>
-    <col min="4" max="4" width="35.2522522522523" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="9"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.15" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -7190,116 +7377,154 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43229</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43229</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43229</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7308,115 +7533,115 @@
       <c r="A13" s="6"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" ht="15" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="13"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:7">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="16"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="17"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7425,133 +7650,133 @@
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="15" spans="1:7">
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="13"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="16"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="17"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7560,133 +7785,133 @@
       <c r="A41" s="6"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="15" spans="1:7">
+    <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="16"/>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="17"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="16"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="16"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="15"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -7695,106 +7920,106 @@
       <c r="A56" s="6"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="15" spans="1:7">
+    <row r="57" ht="14.25" spans="1:7">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" ht="15" spans="1:7">
-      <c r="A58" s="16"/>
+    <row r="58" ht="14.25" spans="1:7">
+      <c r="A58" s="17"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" ht="15" spans="1:7">
-      <c r="A59" s="16"/>
+    <row r="59" ht="14.25" spans="1:7">
+      <c r="A59" s="17"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="19"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" ht="15" spans="1:7">
-      <c r="A60" s="16"/>
+    <row r="60" ht="14.25" spans="1:7">
+      <c r="A60" s="17"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="22"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="16"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="16"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="16"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="16"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -7803,106 +8028,106 @@
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="15" spans="1:7">
+    <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" ht="15" spans="1:7">
-      <c r="A70" s="16"/>
+    <row r="70" ht="14.25" spans="1:7">
+      <c r="A70" s="17"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" ht="15" spans="1:7">
-      <c r="A71" s="16"/>
+    <row r="71" ht="14.25" spans="1:7">
+      <c r="A71" s="17"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="19"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" ht="15" spans="1:7">
-      <c r="A72" s="16"/>
+    <row r="72" ht="14.25" spans="1:7">
+      <c r="A72" s="17"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="22"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="16"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="16"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="16"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="16"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="16"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="16"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="16"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -7911,88 +8136,88 @@
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="15" spans="1:7">
-      <c r="A81" s="16"/>
+    <row r="81" ht="14.25" spans="1:7">
+      <c r="A81" s="17"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" ht="15" spans="1:7">
-      <c r="A82" s="16"/>
+    <row r="82" ht="14.25" spans="1:7">
+      <c r="A82" s="17"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="19"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="16"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="16"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="16"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="15"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="16"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="15"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="16"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="16"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="15"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="16"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8001,7 +8226,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8036,31 +8261,31 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.85" spans="1:4">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-经旺平.xlsx
+++ b/周数据/《个人上线率统计表》-经旺平.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -205,8 +205,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -278,16 +278,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -302,9 +324,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,57 +370,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,7 +378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,24 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +402,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +479,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,19 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,37 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,37 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,17 +1011,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,52 +1064,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,6 +1084,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1116,10 +1116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,16 +1128,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,119 +1146,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,20 +1340,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1807,272 +1798,272 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="40">
         <v>18</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="41">
         <v>3</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>3</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="42">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="60">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>3</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62" t="e">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="60">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="61">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="65" t="e">
+      <c r="M4" s="62" t="e">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62" t="e">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="65" t="e">
+      <c r="M5" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62" t="e">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="65" t="e">
+      <c r="M6" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="e">
+      <c r="I7" s="58"/>
+      <c r="J7" s="59" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="65" t="e">
+      <c r="M7" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52">
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="e">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="70" t="e">
+      <c r="M8" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2093,8 +2084,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2137,7 +2128,7 @@
       <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -2160,10 +2151,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="27">
+      <c r="A2" s="13">
         <v>18</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>43229</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2181,7 +2172,7 @@
       <c r="G2" s="1">
         <v>76162958</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2207,8 +2198,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2215,7 @@
       <c r="G3" s="1">
         <v>76162973</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2250,8 +2241,8 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2267,11 +2258,11 @@
       <c r="G4" s="1">
         <v>76167603</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
@@ -7354,7 +7345,7 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8261,7 +8252,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《个人上线率统计表》-经旺平.xlsx
+++ b/周数据/《个人上线率统计表》-经旺平.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -142,6 +142,12 @@
     <t>京茶山手作茶物（常州湖塘吾悦店）</t>
   </si>
   <si>
+    <t>泰州</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（靖江店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -204,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -279,14 +285,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +346,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,23 +398,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,83 +422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,49 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +551,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,43 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,19 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,11 +1019,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,31 +1095,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,30 +1114,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1116,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,137 +1134,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1351,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1798,272 +1810,272 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="32" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="41">
         <v>5</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="42">
         <v>18</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="43">
         <v>3</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="44">
         <v>3</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="44">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="45">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59">
+      <c r="I3" s="60"/>
+      <c r="J3" s="61">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="62">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="63">
         <f>D3+G3</f>
         <v>3</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="64">
         <f>L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43">
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="e">
+      <c r="I4" s="60"/>
+      <c r="J4" s="61" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="62">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="63">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="62" t="e">
+      <c r="M4" s="64" t="e">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43">
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="e">
+      <c r="I5" s="60"/>
+      <c r="J5" s="61" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="62" t="e">
+      <c r="M5" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59" t="e">
+      <c r="I6" s="60"/>
+      <c r="J6" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="62" t="e">
+      <c r="M6" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="43">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="e">
+      <c r="I7" s="60"/>
+      <c r="J7" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="62" t="e">
+      <c r="M7" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49">
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="e">
+      <c r="I8" s="65"/>
+      <c r="J8" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="67" t="e">
+      <c r="M8" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2084,8 +2096,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2128,7 +2140,7 @@
       <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -2284,21 +2296,51 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="29">
+        <v>19</v>
+      </c>
+      <c r="B5" s="30">
+        <v>43234</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1">
+        <v>76170036</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15195577631</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18551613908</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
@@ -7327,10 +7369,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4:O5 O6:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7345,8 +7387,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7368,19 +7410,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7388,64 +7430,64 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="15">
         <v>43229</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="15">
         <v>43229</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15">
         <v>43229</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8270,13 +8312,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-经旺平.xlsx
+++ b/周数据/《个人上线率统计表》-经旺平.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -148,6 +148,12 @@
     <t>京茶山手作茶物（靖江店）</t>
   </si>
   <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通开发区店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -212,8 +218,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -284,22 +290,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -307,22 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,14 +344,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -352,7 +360,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,23 +397,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,23 +414,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,25 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,19 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,37 +581,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +617,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,6 +1023,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1041,21 +1110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1066,54 +1120,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1122,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,137 +1140,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,10 +1358,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1810,272 +1819,278 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>5</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>18</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>3</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="45">
         <v>3</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="45">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="45">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="63">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="64">
         <f>D3+G3</f>
         <v>3</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="65">
         <f>L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43">
+        <v>19</v>
+      </c>
+      <c r="C4" s="44">
+        <v>2</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45">
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61" t="e">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62">
         <f>I4/L4*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="63">
+        <v>2</v>
+      </c>
+      <c r="L4" s="64">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="64" t="e">
+        <v>2</v>
+      </c>
+      <c r="M4" s="65">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61" t="e">
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="64" t="e">
+      <c r="M5" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61" t="e">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="64" t="e">
+      <c r="M6" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="45">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61" t="e">
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="64" t="e">
+      <c r="M7" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="51">
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66" t="e">
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="69" t="e">
+      <c r="M8" s="70" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2096,8 +2111,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2140,7 +2155,7 @@
       <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -2343,21 +2358,49 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="30">
+        <v>43235</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76170156</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15195577632</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18551613909</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
@@ -7358,8 +7401,9 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <dataValidations count="4">
@@ -7369,10 +7413,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4:O5 O6:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5:O6 O7:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7410,19 +7454,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7430,64 +7474,64 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="15">
         <v>43229</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15">
         <v>43229</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="15">
         <v>43229</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8312,13 +8356,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/周数据/《个人上线率统计表》-经旺平.xlsx
+++ b/周数据/《个人上线率统计表》-经旺平.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -154,6 +154,9 @@
     <t>京茶山手作茶物（南通开发区店）</t>
   </si>
   <si>
+    <t>京茶山手作茶物（江宁金鹰店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -216,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -290,9 +293,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,22 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,14 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,35 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -380,9 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +391,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -404,31 +429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,19 +494,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +542,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,79 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,25 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,69 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1120,6 +1060,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1128,10 +1131,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,137 +1143,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,13 +1361,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,8 +1802,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1819,278 +1816,278 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="40">
         <v>5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>18</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <v>3</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <v>3</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="61">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="62">
         <f>D3+G3</f>
         <v>3</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="63">
         <f>L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41">
         <v>19</v>
       </c>
-      <c r="C4" s="44">
-        <v>2</v>
-      </c>
-      <c r="D4" s="45">
-        <v>2</v>
-      </c>
-      <c r="E4" s="45">
+      <c r="C4" s="42">
+        <v>3</v>
+      </c>
+      <c r="D4" s="43">
+        <v>3</v>
+      </c>
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44">
         <f t="shared" ref="H4:H8" si="1">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62">
+      <c r="I4" s="59"/>
+      <c r="J4" s="60">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="61">
         <f t="shared" ref="K4:K8" si="2">C4+G4</f>
-        <v>2</v>
-      </c>
-      <c r="L4" s="64">
+        <v>3</v>
+      </c>
+      <c r="L4" s="62">
         <f t="shared" ref="L4:L8" si="3">D4+G4</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="65">
+        <v>3</v>
+      </c>
+      <c r="M4" s="63">
         <f t="shared" ref="M4:M8" si="4">L4/K4*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62" t="e">
+      <c r="I5" s="59"/>
+      <c r="J5" s="60" t="e">
         <f t="shared" ref="J5:J8" si="5">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="65" t="e">
+      <c r="M5" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62" t="e">
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="65" t="e">
+      <c r="M6" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="e">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="65" t="e">
+      <c r="M7" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="e">
+      <c r="I8" s="64"/>
+      <c r="J8" s="65" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="70" t="e">
+      <c r="M8" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2111,8 +2108,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2155,7 +2152,7 @@
       <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="26" t="s">
@@ -2179,7 +2176,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="27">
         <v>43229</v>
@@ -2311,10 +2308,10 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="29">
-        <v>19</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="13">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29">
         <v>43234</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2342,7 +2339,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="1">
-        <v>15195577631</v>
+        <v>15195577630</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>35</v>
@@ -2358,8 +2355,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30">
+      <c r="A6" s="17"/>
+      <c r="B6" s="29">
         <v>43235</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2387,7 +2384,7 @@
         <v>34</v>
       </c>
       <c r="K6" s="1">
-        <v>15195577632</v>
+        <v>15195577630</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>35</v>
@@ -2403,21 +2400,49 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="29">
+        <v>43236</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76170928</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15195577630</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18551613909</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
@@ -7403,7 +7428,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <dataValidations count="4">
@@ -7413,10 +7438,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5:O6 O7:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O7 O5:O6 O8:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7454,19 +7479,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7474,64 +7499,64 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="15">
         <v>43229</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15">
         <v>43229</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="15">
         <v>43229</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8356,13 +8381,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
